--- a/Pracownicy.xlsx
+++ b/Pracownicy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProjectWSB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdi-student\Desktop\Projekt-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>pawel_dudek@gmail.com</t>
-  </si>
-  <si>
-    <t>luty</t>
   </si>
   <si>
     <t>kasiabujak@wp.pl</t>
@@ -188,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +746,7 @@
         <v>3000</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>1200</v>
@@ -866,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
